--- a/Dijkstra.xlsx
+++ b/Dijkstra.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlucas41/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlucas41/GitHub/GraphSerialization/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="random,sparse" sheetId="3" r:id="rId1"/>
@@ -1324,11 +1324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089840576"/>
-        <c:axId val="2089832608"/>
+        <c:axId val="2104041264"/>
+        <c:axId val="2104049232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089840576"/>
+        <c:axId val="2104041264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,12 +1441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089832608"/>
+        <c:crossAx val="2104049232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2089832608"/>
+        <c:axId val="2104049232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.001"/>
@@ -1560,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089840576"/>
+        <c:crossAx val="2104041264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2266,11 +2266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089783152"/>
-        <c:axId val="2118705168"/>
+        <c:axId val="2102706576"/>
+        <c:axId val="2102733040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089783152"/>
+        <c:axId val="2102706576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,12 +2383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118705168"/>
+        <c:crossAx val="2102733040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118705168"/>
+        <c:axId val="2102733040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089783152"/>
+        <c:crossAx val="2102706576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3744,11 +3744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116143872"/>
-        <c:axId val="2116137840"/>
+        <c:axId val="2102787888"/>
+        <c:axId val="2102793920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116143872"/>
+        <c:axId val="2102787888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,12 +3861,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116137840"/>
+        <c:crossAx val="2102793920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116137840"/>
+        <c:axId val="2102793920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.001"/>
@@ -3980,7 +3980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116143872"/>
+        <c:crossAx val="2102787888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4686,11 +4686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118755104"/>
-        <c:axId val="2118761008"/>
+        <c:axId val="2102830672"/>
+        <c:axId val="2102836576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118755104"/>
+        <c:axId val="2102830672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,12 +4803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118761008"/>
+        <c:crossAx val="2102836576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118761008"/>
+        <c:axId val="2102836576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4922,7 +4922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118755104"/>
+        <c:crossAx val="2102830672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5636,11 +5636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125763200"/>
-        <c:axId val="1790849760"/>
+        <c:axId val="2102912304"/>
+        <c:axId val="2102918400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125763200"/>
+        <c:axId val="2102912304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5753,12 +5753,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1790849760"/>
+        <c:crossAx val="2102918400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1790849760"/>
+        <c:axId val="2102918400"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5872,7 +5872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125763200"/>
+        <c:crossAx val="2102912304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6314,11 +6314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138902080"/>
-        <c:axId val="2114179232"/>
+        <c:axId val="2101564752"/>
+        <c:axId val="2101570720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138902080"/>
+        <c:axId val="2101564752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6431,12 +6431,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114179232"/>
+        <c:crossAx val="2101570720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114179232"/>
+        <c:axId val="2101570720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +6550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138902080"/>
+        <c:crossAx val="2101564752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10447,7 +10447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="179" zoomScaleNormal="232" zoomScalePageLayoutView="232" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="232" zoomScalePageLayoutView="232" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11299,7 +11301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="179" zoomScaleNormal="232" zoomScalePageLayoutView="232" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="232" zoomScalePageLayoutView="232" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12151,7 +12153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="232" zoomScalePageLayoutView="232" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="106" zoomScalePageLayoutView="106" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
